--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_am.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_am.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC6E27-184D-4F73-B1C6-34C26896F05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819C8216-3259-1840-9C62-1D9C974C5C14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -410,16 +410,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -443,9 +437,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,20 +744,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -778,7 +771,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1300029</v>
       </c>
@@ -789,7 +782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1300060</v>
       </c>
@@ -800,7 +793,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1300086</v>
       </c>
@@ -811,7 +804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1300102</v>
       </c>
@@ -822,7 +815,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1300144</v>
       </c>
@@ -833,7 +826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1300201</v>
       </c>
@@ -844,7 +837,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1300300</v>
       </c>
@@ -855,7 +848,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1300409</v>
       </c>
@@ -866,7 +859,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1300508</v>
       </c>
@@ -877,7 +870,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1300607</v>
       </c>
@@ -888,7 +881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1300631</v>
       </c>
@@ -899,7 +892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1300680</v>
       </c>
@@ -910,7 +903,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1300706</v>
       </c>
@@ -921,7 +914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1300805</v>
       </c>
@@ -932,7 +925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1300839</v>
       </c>
@@ -943,7 +936,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1300904</v>
       </c>
@@ -954,7 +947,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1301001</v>
       </c>
@@ -965,7 +958,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1301100</v>
       </c>
@@ -976,7 +969,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1301159</v>
       </c>
@@ -987,7 +980,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1301209</v>
       </c>
@@ -998,7 +991,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1301308</v>
       </c>
@@ -1009,7 +1002,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1301407</v>
       </c>
@@ -1020,7 +1013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1301506</v>
       </c>
@@ -1031,7 +1024,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1301605</v>
       </c>
@@ -1042,7 +1035,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1301654</v>
       </c>
@@ -1053,7 +1046,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1301704</v>
       </c>
@@ -1064,7 +1057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1301803</v>
       </c>
@@ -1075,7 +1068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1301852</v>
       </c>
@@ -1086,7 +1079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1301902</v>
       </c>
@@ -1097,7 +1090,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1301951</v>
       </c>
@@ -1108,7 +1101,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1302009</v>
       </c>
@@ -1119,7 +1112,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1302108</v>
       </c>
@@ -1130,7 +1123,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1302207</v>
       </c>
@@ -1141,7 +1134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1302306</v>
       </c>
@@ -1152,7 +1145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1302405</v>
       </c>
@@ -1163,7 +1156,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1302504</v>
       </c>
@@ -1174,7 +1167,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1302553</v>
       </c>
@@ -1185,7 +1178,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1302603</v>
       </c>
@@ -1196,7 +1189,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1302702</v>
       </c>
@@ -1207,7 +1200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1302801</v>
       </c>
@@ -1218,7 +1211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1302900</v>
       </c>
@@ -1229,7 +1222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1303007</v>
       </c>
@@ -1240,7 +1233,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1303106</v>
       </c>
@@ -1251,7 +1244,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1303205</v>
       </c>
@@ -1262,7 +1255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1303304</v>
       </c>
@@ -1273,7 +1266,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1303403</v>
       </c>
@@ -1284,7 +1277,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1303502</v>
       </c>
@@ -1295,7 +1288,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1303536</v>
       </c>
@@ -1306,7 +1299,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1303569</v>
       </c>
@@ -1317,7 +1310,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1303601</v>
       </c>
@@ -1328,7 +1321,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1303700</v>
       </c>
@@ -1339,7 +1332,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1303809</v>
       </c>
@@ -1350,7 +1343,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1303908</v>
       </c>
@@ -1361,7 +1354,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1303957</v>
       </c>
@@ -1372,7 +1365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1304005</v>
       </c>
@@ -1383,7 +1376,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1304062</v>
       </c>
@@ -1394,7 +1387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1304104</v>
       </c>
@@ -1405,7 +1398,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1304203</v>
       </c>
@@ -1416,7 +1409,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1304237</v>
       </c>
@@ -1427,7 +1420,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1304260</v>
       </c>
@@ -1438,7 +1431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1304302</v>
       </c>
@@ -1449,7 +1442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1304401</v>
       </c>
@@ -1459,9 +1452,6 @@
       <c r="C63" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
